--- a/도서대여 프로젝트/도서정보-테이블명세mysql.xlsx
+++ b/도서대여 프로젝트/도서정보-테이블명세mysql.xlsx
@@ -1315,7 +1315,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2394,7 +2394,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4520,7 +4520,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5578,7 +5578,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
